--- a/rawgTermsListing.xlsx
+++ b/rawgTermsListing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ladbu\utsa_bootcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\Bootcamp\Gamerbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810263F7-F95F-47A3-92CC-54BB270BA2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5E3E3F-F918-4514-8DD3-3795EA485B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{E83E5622-0C8E-4F65-9E91-83F58F6DD6ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E83E5622-0C8E-4F65-9E91-83F58F6DD6ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,112 +36,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Genre</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Indie</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>RPG</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Shooter</t>
-  </si>
-  <si>
-    <t>Casual</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>Puzzle</t>
-  </si>
-  <si>
-    <t>Arcade</t>
-  </si>
-  <si>
-    <t>Platformer</t>
-  </si>
-  <si>
-    <t>Racing</t>
-  </si>
-  <si>
-    <t>Massively Multiplayer</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>Fighting</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Board Games</t>
-  </si>
-  <si>
-    <t>Educational</t>
-  </si>
-  <si>
-    <t>Card</t>
-  </si>
-  <si>
     <t>Platforms</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>Playstation 5</t>
-  </si>
-  <si>
-    <t>Playstation 4</t>
-  </si>
-  <si>
-    <t>Xbox One</t>
-  </si>
-  <si>
-    <t>Xbox Series S/X</t>
-  </si>
-  <si>
-    <t>Nintendo Switch</t>
-  </si>
-  <si>
-    <t>macOS</t>
-  </si>
-  <si>
-    <t>Playstation 3</t>
-  </si>
-  <si>
-    <t>Xbox 360</t>
-  </si>
-  <si>
-    <t>Xbox</t>
-  </si>
-  <si>
-    <t>Playstation 2</t>
-  </si>
-  <si>
-    <t>Playstation</t>
+    <t>PC id=4</t>
+  </si>
+  <si>
+    <t>Playstation 5 id=187</t>
+  </si>
+  <si>
+    <t>Playstation 4 id=18</t>
+  </si>
+  <si>
+    <t>Xbox One id=1</t>
+  </si>
+  <si>
+    <t>Xbox 360 id=14</t>
+  </si>
+  <si>
+    <t>Nintendo Switch id=7</t>
+  </si>
+  <si>
+    <t>Action id=4</t>
+  </si>
+  <si>
+    <t>Adventure id=3</t>
+  </si>
+  <si>
+    <t>Strategy id=10</t>
+  </si>
+  <si>
+    <t>RPG id=5</t>
+  </si>
+  <si>
+    <t>Shooter id=2</t>
+  </si>
+  <si>
+    <t>Puzzle id=7</t>
+  </si>
+  <si>
+    <t>Racing id=1</t>
+  </si>
+  <si>
+    <t>Sports id=15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,28 +464,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246B4CE8-A4B5-43BD-9EB5-E13EE1334C41}">
-  <dimension ref="A2:K21"/>
+  <dimension ref="A2:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" customWidth="1"/>
-    <col min="4" max="4" width="2.54296875" customWidth="1"/>
-    <col min="5" max="11" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="2.75" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="2.5" customWidth="1"/>
+    <col min="5" max="11" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -547,138 +496,62 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
